--- a/Dokumente/Nachweise_inoffiziell/2017_Juni.xlsx
+++ b/Dokumente/Nachweise_inoffiziell/2017_Juni.xlsx
@@ -41,6 +41,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -297,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -369,13 +371,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="medium"/>
@@ -422,7 +417,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -527,15 +522,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
@@ -579,7 +570,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,8 +657,8 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E10" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,21 +955,20 @@
       </c>
       <c r="C16" s="18" t="str">
         <f aca="false">IF(G16 &gt; 0, TEXT(G16,"hh:mm")&amp;"-"&amp;TEXT(G16+(H16/24),"hh:mm"), 0)</f>
-        <v>17:00-17:20</v>
+        <v>17:00-17:30</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="19" t="n">
         <f aca="false">H16/24</f>
-        <v>0.0138888888888889</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="G16" s="20" t="n">
         <v>0.708333333333333</v>
       </c>
       <c r="H16" s="21" t="n">
-        <f aca="false">1/3</f>
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="22" t="n">
         <v>11</v>
@@ -1123,19 +1113,23 @@
         <f aca="false">A21</f>
         <v>41440</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="18" t="str">
         <f aca="false">IF(G21 &gt; 0, TEXT(G21,"hh:mm")&amp;"-"&amp;TEXT(G21+(H21/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>12:00-13:30</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="19" t="n">
         <f aca="false">H21/24</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
+        <v>0.0625</v>
+      </c>
+      <c r="G21" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>1.5</v>
+      </c>
       <c r="I21" s="22" t="n">
         <v>16</v>
       </c>
@@ -1145,260 +1139,320 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="n">
         <f aca="false">IF(I22 &gt; 0, DATE($K$12, $J$12, I22), 0)</f>
-        <v>0</v>
+        <v>41442</v>
       </c>
       <c r="B22" s="17" t="n">
         <f aca="false">A22</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="18" t="n">
+        <v>41442</v>
+      </c>
+      <c r="C22" s="18" t="str">
         <f aca="false">IF(G22 &gt; 0, TEXT(G22,"hh:mm")&amp;"-"&amp;TEXT(G22+(H22/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>17:00-17:30</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="19" t="n">
         <f aca="false">H22/24</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G22" s="20" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>18</v>
+      </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="n">
         <f aca="false">IF(I23 &gt; 0, DATE($K$12, $J$12, I23), 0)</f>
-        <v>0</v>
+        <v>41443</v>
       </c>
       <c r="B23" s="17" t="n">
         <f aca="false">A23</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="18" t="n">
+        <v>41443</v>
+      </c>
+      <c r="C23" s="18" t="str">
         <f aca="false">IF(G23 &gt; 0, TEXT(G23,"hh:mm")&amp;"-"&amp;TEXT(G23+(H23/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>20:00-20:30</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="19" t="n">
         <f aca="false">H23/24</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H23" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>19</v>
+      </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="n">
         <f aca="false">IF(I24 &gt; 0, DATE($K$12, $J$12, I24), 0)</f>
-        <v>0</v>
+        <v>41445</v>
       </c>
       <c r="B24" s="17" t="n">
         <f aca="false">A24</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="18" t="n">
+        <v>41445</v>
+      </c>
+      <c r="C24" s="18" t="str">
         <f aca="false">IF(G24 &gt; 0, TEXT(G24,"hh:mm")&amp;"-"&amp;TEXT(G24+(H24/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>21:00-21:30</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="19" t="n">
         <f aca="false">H24/24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G24" s="20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="22" t="n">
+        <v>21</v>
+      </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="n">
         <f aca="false">IF(I25 &gt; 0, DATE($K$12, $J$12, I25), 0)</f>
-        <v>0</v>
+        <v>41447</v>
       </c>
       <c r="B25" s="17" t="n">
         <f aca="false">A25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="18" t="n">
+        <v>41447</v>
+      </c>
+      <c r="C25" s="18" t="str">
         <f aca="false">IF(G25 &gt; 0, TEXT(G25,"hh:mm")&amp;"-"&amp;TEXT(G25+(H25/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>21:00-21:30</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="19" t="n">
         <f aca="false">H25/24</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H25" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="22" t="n">
+        <v>23</v>
+      </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
         <f aca="false">IF(I26 &gt; 0, DATE($K$12, $J$12, I26), 0)</f>
-        <v>0</v>
+        <v>41449</v>
       </c>
       <c r="B26" s="17" t="n">
         <f aca="false">A26</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="18" t="n">
+        <v>41449</v>
+      </c>
+      <c r="C26" s="18" t="str">
         <f aca="false">IF(G26 &gt; 0, TEXT(G26,"hh:mm")&amp;"-"&amp;TEXT(G26+(H26/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>20:30-21:00</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="19" t="n">
         <f aca="false">H26/24</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="G26" s="20" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="H26" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="22" t="n">
+        <v>25</v>
+      </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <f aca="false">IF(I27 &gt; 0, DATE($K$12, $J$12, I27), 0)</f>
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="B27" s="17" t="n">
         <f aca="false">A27</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="18" t="n">
+        <v>41450</v>
+      </c>
+      <c r="C27" s="18" t="str">
         <f aca="false">IF(G27 &gt; 0, TEXT(G27,"hh:mm")&amp;"-"&amp;TEXT(G27+(H27/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>16:00-21:00</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="19" t="n">
         <f aca="false">H27/24</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H27" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="22" t="n">
+        <v>26</v>
+      </c>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="n">
         <f aca="false">IF(I28 &gt; 0, DATE($K$12, $J$12, I28), 0)</f>
-        <v>0</v>
+        <v>41451</v>
       </c>
       <c r="B28" s="17" t="n">
         <f aca="false">A28</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="18" t="n">
+        <v>41451</v>
+      </c>
+      <c r="C28" s="18" t="str">
         <f aca="false">IF(G28 &gt; 0, TEXT(G28,"hh:mm")&amp;"-"&amp;TEXT(G28+(H28/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>12:00-17:00</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="19" t="n">
         <f aca="false">H28/24</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="22" t="n">
+        <v>27</v>
+      </c>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
         <f aca="false">IF(I29 &gt; 0, DATE($K$12, $J$12, I29), 0)</f>
-        <v>0</v>
+        <v>41452</v>
       </c>
       <c r="B29" s="17" t="n">
         <f aca="false">A29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="18" t="n">
+        <v>41452</v>
+      </c>
+      <c r="C29" s="18" t="str">
         <f aca="false">IF(G29 &gt; 0, TEXT(G29,"hh:mm")&amp;"-"&amp;TEXT(G29+(H29/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>12:00-17:00</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="19" t="n">
         <f aca="false">H29/24</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" s="22" t="n">
+        <v>28</v>
+      </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="n">
         <f aca="false">IF(I30 &gt; 0, DATE($K$12, $J$12, I30), 0)</f>
-        <v>0</v>
+        <v>41453</v>
       </c>
       <c r="B30" s="17" t="n">
         <f aca="false">A30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="18" t="n">
+        <v>41453</v>
+      </c>
+      <c r="C30" s="18" t="str">
         <f aca="false">IF(G30 &gt; 0, TEXT(G30,"hh:mm")&amp;"-"&amp;TEXT(G30+(H30/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>12:00-17:30</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="19" t="n">
         <f aca="false">H30/24</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I30" s="22" t="n">
+        <v>29</v>
+      </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="n">
         <f aca="false">IF(I31 &gt; 0, DATE($K$12, $J$12, I31), 0)</f>
-        <v>0</v>
+        <v>41454</v>
       </c>
       <c r="B31" s="17" t="n">
         <f aca="false">A31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="18" t="n">
+        <v>41454</v>
+      </c>
+      <c r="C31" s="18" t="str">
         <f aca="false">IF(G31 &gt; 0, TEXT(G31,"hh:mm")&amp;"-"&amp;TEXT(G31+(H31/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>14:00-19:00</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19" t="n">
         <f aca="false">H31/24</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H31" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="22" t="n">
+        <v>30</v>
+      </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
     </row>
@@ -1626,7 +1680,7 @@
       <c r="D40" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="26" t="n">
+      <c r="E40" s="19" t="n">
         <f aca="false">H40/24</f>
         <v>0</v>
       </c>
@@ -1636,57 +1690,57 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" s="29" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
+    <row r="41" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28" t="n">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27" t="n">
         <f aca="false">SUM(H12:H40)/24</f>
-        <v>0.201388888888889</v>
-      </c>
-      <c r="G41" s="30"/>
-    </row>
-    <row r="42" s="33" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
+        <v>1.4375</v>
+      </c>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" s="32" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="31"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" s="38" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" s="40" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39" t="s">
+    <row r="44" s="37" customFormat="true" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" s="39" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="D45" s="39" t="s">
+      <c r="B45" s="38"/>
+      <c r="D45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
